--- a/00000029.xlsx
+++ b/00000029.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uaslam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uaslam\Downloads\SpreadJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268E5309-C610-4A8A-8D4C-5374A79F0670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8918E51-7668-4AFE-B588-7DDAC2279FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCAB364B-7876-4AA2-8F13-4DFC0FC48B38}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$AA$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$AA$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="1522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="1507">
   <si>
     <t>First Name</t>
   </si>
@@ -185,9 +185,6 @@
     <t>Jessica</t>
   </si>
   <si>
-    <t>Beasley</t>
-  </si>
-  <si>
     <t>6590 Hardy Cape Apt. 331</t>
   </si>
   <si>
@@ -212,15 +209,6 @@
     <t>Sr.</t>
   </si>
   <si>
-    <t>0328 Snyder Meadow Suite 454</t>
-  </si>
-  <si>
-    <t>Suite 190</t>
-  </si>
-  <si>
-    <t>Holtmouth</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
@@ -1643,9 +1631,6 @@
     <t>Netherlands</t>
   </si>
   <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
     <t>Kazakhstan</t>
   </si>
   <si>
@@ -1898,9 +1883,6 @@
     <t>208-FAG</t>
   </si>
   <si>
-    <t>5-54886</t>
-  </si>
-  <si>
     <t>6074 YU</t>
   </si>
   <si>
@@ -2189,9 +2171,6 @@
     <t>699-58-3741</t>
   </si>
   <si>
-    <t>358-53-9539</t>
-  </si>
-  <si>
     <t>859-86-8326</t>
   </si>
   <si>
@@ -2528,18 +2507,6 @@
     <t>DKJI66252508448701</t>
   </si>
   <si>
-    <t>4601-828-026</t>
-  </si>
-  <si>
-    <t>TRIBAL3903</t>
-  </si>
-  <si>
-    <t>USCIS3016</t>
-  </si>
-  <si>
-    <t>CMYW22767248857279</t>
-  </si>
-  <si>
     <t>8750-190-942</t>
   </si>
   <si>
@@ -3698,9 +3665,6 @@
     <t>lambert48@yahoo.com</t>
   </si>
   <si>
-    <t>garland_mueller@gmail.com</t>
-  </si>
-  <si>
     <t>oran.emard@yahoo.com</t>
   </si>
   <si>
@@ -3998,9 +3962,6 @@
     <t>ABC126</t>
   </si>
   <si>
-    <t>ABC127</t>
-  </si>
-  <si>
     <t>ABC128</t>
   </si>
   <si>
@@ -4296,9 +4257,6 @@
   </si>
   <si>
     <t>CVV -103</t>
-  </si>
-  <si>
-    <t>CVV -104</t>
   </si>
   <si>
     <t>CVV -105</t>
@@ -4604,10 +4562,7 @@
     <t>USAtext</t>
   </si>
   <si>
-    <t>It is a long established fact that a reader will be distracted by the readable content of a page when looking at its layout. The point of using Lorem Ipsum is that it has a more-or-less normal distribution of letters, as opposed to using 'Content here, content here', making it look like readable En</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever </t>
+    <t>Canada</t>
   </si>
 </sst>
 </file>
@@ -4987,15 +4942,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADFD862-6DF9-4588-8662-2E275E062208}">
-  <dimension ref="A1:AA101"/>
+  <dimension ref="A1:AA100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27.28515625" bestFit="1" customWidth="1"/>
@@ -5007,7 +4964,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1515</v>
+        <v>1501</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5114,34 +5071,34 @@
         <v>57571</v>
       </c>
       <c r="K2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="L2" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M2" s="5">
         <v>10143</v>
       </c>
       <c r="N2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="O2" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="P2">
         <v>676511616</v>
       </c>
       <c r="Q2" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="R2" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="S2" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="T2" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="U2" s="2">
         <v>789654</v>
@@ -5150,16 +5107,16 @@
         <v>123654789</v>
       </c>
       <c r="W2" t="s">
-        <v>1415</v>
+        <v>1402</v>
       </c>
       <c r="X2" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="Z2" t="s">
-        <v>1315</v>
+        <v>1303</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>1215</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -5191,52 +5148,52 @@
         <v>45090</v>
       </c>
       <c r="K3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L3" t="s">
-        <v>1517</v>
+        <v>1503</v>
       </c>
       <c r="M3" s="5">
         <v>10145</v>
       </c>
       <c r="N3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="O3" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="P3">
         <v>843308927</v>
       </c>
       <c r="Q3" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="R3" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="S3" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="T3" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>1516</v>
+        <v>1502</v>
       </c>
       <c r="V3" s="2">
         <v>123654789</v>
       </c>
       <c r="W3" t="s">
-        <v>1416</v>
+        <v>1403</v>
       </c>
       <c r="X3" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="Z3" t="s">
-        <v>1316</v>
+        <v>1304</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>1216</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -5268,34 +5225,34 @@
         <v>77500</v>
       </c>
       <c r="K4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="L4" t="s">
-        <v>1518</v>
+        <v>1504</v>
       </c>
       <c r="M4" s="5">
         <v>17095</v>
       </c>
       <c r="N4" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="O4" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="P4">
         <v>257065655</v>
       </c>
       <c r="Q4" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="R4" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="S4" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="T4" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="U4" s="2">
         <v>9874563210</v>
@@ -5304,16 +5261,16 @@
         <v>123654789</v>
       </c>
       <c r="W4" t="s">
-        <v>1417</v>
+        <v>1404</v>
       </c>
       <c r="X4" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="Z4" t="s">
-        <v>1317</v>
+        <v>1305</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>1217</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -5321,58 +5278,58 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
       </c>
       <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>50</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>51</v>
-      </c>
-      <c r="I5" t="s">
-        <v>52</v>
       </c>
       <c r="J5">
         <v>39189</v>
       </c>
       <c r="K5" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="L5" t="s">
-        <v>1519</v>
+        <v>1505</v>
       </c>
       <c r="M5" s="5">
         <v>18308</v>
       </c>
       <c r="N5" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="O5" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="P5">
         <v>23041727</v>
       </c>
       <c r="Q5" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="R5" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="S5" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="T5" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="U5" s="2">
         <v>9874563210</v>
@@ -5381,75 +5338,75 @@
         <v>123654789</v>
       </c>
       <c r="W5" t="s">
-        <v>1418</v>
+        <v>1405</v>
       </c>
       <c r="X5" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="Z5" t="s">
-        <v>1318</v>
+        <v>1306</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>1218</v>
+        <v>1207</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J6">
-        <v>71415</v>
+        <v>22518</v>
       </c>
       <c r="K6" t="s">
-        <v>534</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>1521</v>
+        <v>530</v>
+      </c>
+      <c r="L6" t="s">
+        <v>609</v>
       </c>
       <c r="M6" s="5">
-        <v>13540</v>
+        <v>32637</v>
       </c>
       <c r="N6" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="O6" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="P6">
-        <v>806808208</v>
+        <v>277208620</v>
       </c>
       <c r="Q6" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="R6" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="S6" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="T6" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="U6" s="2">
         <v>9874563210</v>
@@ -5458,75 +5415,75 @@
         <v>123654789</v>
       </c>
       <c r="W6" t="s">
-        <v>1419</v>
+        <v>1406</v>
       </c>
       <c r="X6" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="Z6" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>1219</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J7">
-        <v>22518</v>
+        <v>33105</v>
       </c>
       <c r="K7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="L7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M7" s="5">
-        <v>32637</v>
+        <v>26419</v>
       </c>
       <c r="N7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="O7" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="P7">
-        <v>277208620</v>
+        <v>478620144</v>
       </c>
       <c r="Q7" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="R7" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="S7" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="T7" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="U7" s="2">
         <v>9874563210</v>
@@ -5535,75 +5492,75 @@
         <v>123654789</v>
       </c>
       <c r="W7" t="s">
-        <v>1420</v>
+        <v>1407</v>
       </c>
       <c r="X7" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="Z7" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>1220</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J8">
-        <v>33105</v>
+        <v>75667</v>
       </c>
       <c r="K8" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L8" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M8" s="5">
-        <v>26419</v>
+        <v>8202</v>
       </c>
       <c r="N8" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="O8" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="P8">
-        <v>478620144</v>
+        <v>270274755</v>
       </c>
       <c r="Q8" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="R8" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="S8" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="T8" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="U8" s="2">
         <v>9874563210</v>
@@ -5612,75 +5569,75 @@
         <v>123654789</v>
       </c>
       <c r="W8" t="s">
-        <v>1421</v>
+        <v>1408</v>
       </c>
       <c r="X8" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="Z8" t="s">
-        <v>1321</v>
+        <v>1309</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="J9">
-        <v>75667</v>
+        <v>93003</v>
       </c>
       <c r="K9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L9" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M9" s="5">
-        <v>8202</v>
+        <v>35308</v>
       </c>
       <c r="N9" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="O9" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="P9">
-        <v>270274755</v>
+        <v>326905224</v>
       </c>
       <c r="Q9" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="R9" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="S9" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="T9" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="U9" s="2">
         <v>9874563210</v>
@@ -5689,75 +5646,75 @@
         <v>123654789</v>
       </c>
       <c r="W9" t="s">
-        <v>1422</v>
+        <v>1409</v>
       </c>
       <c r="X9" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="Z9" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="J10">
-        <v>93003</v>
+        <v>87301</v>
       </c>
       <c r="K10" t="s">
-        <v>538</v>
-      </c>
-      <c r="L10" t="s">
-        <v>614</v>
+        <v>534</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>1506</v>
       </c>
       <c r="M10" s="5">
-        <v>35308</v>
+        <v>7695</v>
       </c>
       <c r="N10" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="O10" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="P10">
-        <v>326905224</v>
+        <v>146642511</v>
       </c>
       <c r="Q10" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="R10" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="S10" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="T10" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="U10" s="2">
         <v>9874563210</v>
@@ -5766,75 +5723,75 @@
         <v>123654789</v>
       </c>
       <c r="W10" t="s">
-        <v>1423</v>
+        <v>1410</v>
       </c>
       <c r="X10" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="Z10" t="s">
-        <v>1323</v>
+        <v>1311</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J11">
-        <v>87301</v>
+        <v>65408</v>
       </c>
       <c r="K11" t="s">
-        <v>539</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>1520</v>
+        <v>535</v>
+      </c>
+      <c r="L11" t="s">
+        <v>609</v>
       </c>
       <c r="M11" s="5">
-        <v>7695</v>
+        <v>3048</v>
       </c>
       <c r="N11" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="O11" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="P11">
-        <v>146642511</v>
+        <v>254381264</v>
       </c>
       <c r="Q11" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="R11" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="S11" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="T11" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="U11" s="2">
         <v>9874563210</v>
@@ -5843,75 +5800,75 @@
         <v>123654789</v>
       </c>
       <c r="W11" t="s">
-        <v>1424</v>
+        <v>1411</v>
       </c>
       <c r="X11" t="s">
+        <v>1202</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AA11" s="4" t="s">
         <v>1213</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>1324</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
         <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I12" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="J12">
-        <v>65408</v>
+        <v>98686</v>
       </c>
       <c r="K12" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="L12" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M12" s="5">
-        <v>3048</v>
+        <v>29769</v>
       </c>
       <c r="N12" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="O12" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="P12">
-        <v>254381264</v>
+        <v>307243731</v>
       </c>
       <c r="Q12" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="R12" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="S12" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="T12" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="U12" s="2">
         <v>9874563210</v>
@@ -5920,75 +5877,75 @@
         <v>123654789</v>
       </c>
       <c r="W12" t="s">
-        <v>1425</v>
+        <v>1412</v>
       </c>
       <c r="X12" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="Z12" t="s">
-        <v>1325</v>
+        <v>1313</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
         <v>99</v>
       </c>
-      <c r="D13" t="s">
-        <v>98</v>
-      </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="J13">
-        <v>98686</v>
+        <v>86749</v>
       </c>
       <c r="K13" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="L13" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M13" s="5">
-        <v>29769</v>
+        <v>17463</v>
       </c>
       <c r="N13" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="O13" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="P13">
-        <v>307243731</v>
+        <v>921909065</v>
       </c>
       <c r="Q13" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="R13" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="S13" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="T13" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="U13" s="2">
         <v>9874563210</v>
@@ -5997,75 +5954,75 @@
         <v>123654789</v>
       </c>
       <c r="W13" t="s">
-        <v>1426</v>
+        <v>1413</v>
       </c>
       <c r="X13" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="Z13" t="s">
-        <v>1326</v>
+        <v>1314</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
         <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J14">
-        <v>86749</v>
+        <v>48722</v>
       </c>
       <c r="K14" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="L14" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M14" s="5">
-        <v>17463</v>
+        <v>17329</v>
       </c>
       <c r="N14" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="O14" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="P14">
-        <v>921909065</v>
+        <v>553094639</v>
       </c>
       <c r="Q14" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="R14" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="S14" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="T14" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="U14" s="2">
         <v>9874563210</v>
@@ -6074,75 +6031,75 @@
         <v>123654789</v>
       </c>
       <c r="W14" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
       <c r="X14" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="Z14" t="s">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I15" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="J15">
-        <v>48722</v>
+        <v>96143</v>
       </c>
       <c r="K15" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="L15" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M15" s="5">
-        <v>17329</v>
+        <v>41949</v>
       </c>
       <c r="N15" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="O15" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="P15">
-        <v>553094639</v>
+        <v>63873226</v>
       </c>
       <c r="Q15" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="R15" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="S15" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="T15" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="U15" s="2">
         <v>9874563210</v>
@@ -6151,75 +6108,75 @@
         <v>123654789</v>
       </c>
       <c r="W15" t="s">
-        <v>1428</v>
+        <v>1415</v>
       </c>
       <c r="X15" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="Z15" t="s">
-        <v>1328</v>
+        <v>1316</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
         <v>116</v>
       </c>
-      <c r="D16" t="s">
-        <v>115</v>
-      </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="J16">
-        <v>96143</v>
+        <v>87758</v>
       </c>
       <c r="K16" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="L16" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M16" s="5">
-        <v>41949</v>
+        <v>17218</v>
       </c>
       <c r="N16" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="O16" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="P16">
-        <v>63873226</v>
+        <v>78550828</v>
       </c>
       <c r="Q16" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="R16" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="S16" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="T16" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="U16" s="2">
         <v>9874563210</v>
@@ -6228,75 +6185,75 @@
         <v>123654789</v>
       </c>
       <c r="W16" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="X16" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="Z16" t="s">
-        <v>1329</v>
+        <v>1317</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J17">
-        <v>87758</v>
+        <v>38962</v>
       </c>
       <c r="K17" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L17" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M17" s="5">
-        <v>17218</v>
+        <v>31143</v>
       </c>
       <c r="N17" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="O17" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="P17">
-        <v>78550828</v>
+        <v>263446049</v>
       </c>
       <c r="Q17" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="R17" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="S17" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="T17" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="U17" s="2">
         <v>9874563210</v>
@@ -6305,75 +6262,72 @@
         <v>123654789</v>
       </c>
       <c r="W17" t="s">
-        <v>1430</v>
+        <v>1417</v>
       </c>
       <c r="X17" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="Z17" t="s">
-        <v>1330</v>
+        <v>1318</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J18">
-        <v>38962</v>
+        <v>83496</v>
       </c>
       <c r="K18" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L18" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M18" s="5">
-        <v>31143</v>
+        <v>29935</v>
       </c>
       <c r="N18" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="O18" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="P18">
-        <v>263446049</v>
+        <v>125071223</v>
       </c>
       <c r="Q18" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="R18" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="S18" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="T18" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="U18" s="2">
         <v>9874563210</v>
@@ -6382,72 +6336,72 @@
         <v>123654789</v>
       </c>
       <c r="W18" t="s">
-        <v>1431</v>
+        <v>1418</v>
       </c>
       <c r="X18" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="Z18" t="s">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J19">
-        <v>83496</v>
+        <v>86109</v>
       </c>
       <c r="K19" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L19" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M19" s="5">
-        <v>29935</v>
+        <v>7560</v>
       </c>
       <c r="N19" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="O19" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="P19">
-        <v>125071223</v>
+        <v>120842510</v>
       </c>
       <c r="Q19" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="R19" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="S19" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="T19" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="U19" s="2">
         <v>9874563210</v>
@@ -6456,72 +6410,75 @@
         <v>123654789</v>
       </c>
       <c r="W19" t="s">
-        <v>1432</v>
+        <v>1419</v>
       </c>
       <c r="X19" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="Z19" t="s">
-        <v>1332</v>
+        <v>1320</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>1232</v>
+        <v>1221</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J20">
-        <v>86109</v>
+        <v>53571</v>
       </c>
       <c r="K20" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="L20" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M20" s="5">
-        <v>7560</v>
+        <v>37528</v>
       </c>
       <c r="N20" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="O20" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="P20">
-        <v>120842510</v>
+        <v>923243803</v>
       </c>
       <c r="Q20" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="R20" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="S20" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="T20" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="U20" s="2">
         <v>9874563210</v>
@@ -6530,75 +6487,75 @@
         <v>123654789</v>
       </c>
       <c r="W20" t="s">
-        <v>1433</v>
+        <v>1420</v>
       </c>
       <c r="X20" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="Z20" t="s">
-        <v>1333</v>
+        <v>1321</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>1233</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="21" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H21" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J21">
-        <v>53571</v>
+        <v>97661</v>
       </c>
       <c r="K21" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="L21" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M21" s="5">
-        <v>37528</v>
+        <v>26173</v>
       </c>
       <c r="N21" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="O21" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="P21">
-        <v>923243803</v>
+        <v>653939820</v>
       </c>
       <c r="Q21" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="R21" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="S21" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="T21" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="U21" s="2">
         <v>9874563210</v>
@@ -6607,75 +6564,72 @@
         <v>123654789</v>
       </c>
       <c r="W21" t="s">
-        <v>1434</v>
+        <v>1421</v>
       </c>
       <c r="X21" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="Z21" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>1234</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="22" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J22">
-        <v>97661</v>
+        <v>68358</v>
       </c>
       <c r="K22" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="L22" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M22" s="5">
-        <v>26173</v>
+        <v>40430</v>
       </c>
       <c r="N22" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="O22" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="P22">
-        <v>653939820</v>
+        <v>468030609</v>
       </c>
       <c r="Q22" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="R22" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="S22" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="T22" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="U22" s="2">
         <v>9874563210</v>
@@ -6684,72 +6638,75 @@
         <v>123654789</v>
       </c>
       <c r="W22" t="s">
-        <v>1435</v>
+        <v>1422</v>
       </c>
       <c r="X22" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="Z22" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>147</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I23" t="s">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="J23">
-        <v>68358</v>
+        <v>57456</v>
       </c>
       <c r="K23" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="L23" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M23" s="5">
-        <v>40430</v>
+        <v>42778</v>
       </c>
       <c r="N23" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="O23" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="P23">
-        <v>468030609</v>
+        <v>869345818</v>
       </c>
       <c r="Q23" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="R23" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="S23" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="T23" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="U23" s="2">
         <v>9874563210</v>
@@ -6758,75 +6715,72 @@
         <v>123654789</v>
       </c>
       <c r="W23" t="s">
-        <v>1436</v>
-      </c>
-      <c r="X23" t="s">
-        <v>1213</v>
+        <v>1423</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>1203</v>
       </c>
       <c r="Z23" t="s">
-        <v>1336</v>
+        <v>1324</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>1236</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="24" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" t="s">
         <v>164</v>
       </c>
-      <c r="D24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E24" t="s">
-        <v>42</v>
-      </c>
       <c r="F24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="J24">
-        <v>57456</v>
+        <v>50795</v>
       </c>
       <c r="K24" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L24" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M24" s="5">
-        <v>42778</v>
+        <v>17713</v>
       </c>
       <c r="N24" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="O24" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="P24">
-        <v>869345818</v>
+        <v>558732177</v>
       </c>
       <c r="Q24" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="R24" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="S24" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="T24" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="U24" s="2">
         <v>9874563210</v>
@@ -6835,72 +6789,72 @@
         <v>123654789</v>
       </c>
       <c r="W24" t="s">
-        <v>1437</v>
+        <v>1424</v>
       </c>
       <c r="Y24" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z24" t="s">
-        <v>1337</v>
+        <v>1325</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>1237</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="25" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D25" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G25" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H25" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I25" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J25">
-        <v>50795</v>
+        <v>81157</v>
       </c>
       <c r="K25" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="L25" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M25" s="5">
-        <v>17713</v>
+        <v>40258</v>
       </c>
       <c r="N25" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="O25" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="P25">
-        <v>558732177</v>
+        <v>128494024</v>
       </c>
       <c r="Q25" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="R25" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="S25" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="T25" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="U25" s="2">
         <v>9874563210</v>
@@ -6909,72 +6863,72 @@
         <v>123654789</v>
       </c>
       <c r="W25" t="s">
-        <v>1438</v>
+        <v>1425</v>
       </c>
       <c r="Y25" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z25" t="s">
-        <v>1338</v>
+        <v>1326</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>1238</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="26" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I26" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="J26">
-        <v>81157</v>
+        <v>10810</v>
       </c>
       <c r="K26" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="L26" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M26" s="5">
-        <v>40258</v>
+        <v>14175</v>
       </c>
       <c r="N26" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="O26" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="P26">
-        <v>128494024</v>
+        <v>686882553</v>
       </c>
       <c r="Q26" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="R26" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="S26" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="T26" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="U26" s="2">
         <v>9874563210</v>
@@ -6983,72 +6937,75 @@
         <v>123654789</v>
       </c>
       <c r="W26" t="s">
-        <v>1439</v>
+        <v>1426</v>
       </c>
       <c r="Y26" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z26" t="s">
-        <v>1339</v>
+        <v>1327</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>1239</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" t="s">
         <v>181</v>
       </c>
-      <c r="D27" t="s">
-        <v>85</v>
+      <c r="E27" t="s">
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I27" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="J27">
-        <v>10810</v>
+        <v>4879</v>
       </c>
       <c r="K27" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="L27" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M27" s="5">
-        <v>14175</v>
+        <v>23786</v>
       </c>
       <c r="N27" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="O27" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="P27">
-        <v>686882553</v>
+        <v>171699905</v>
       </c>
       <c r="Q27" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="R27" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="S27" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="T27" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="U27" s="2">
         <v>9874563210</v>
@@ -7057,75 +7014,75 @@
         <v>123654789</v>
       </c>
       <c r="W27" t="s">
-        <v>1440</v>
+        <v>1427</v>
       </c>
       <c r="Y27" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z27" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>1240</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="28" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" t="s">
         <v>186</v>
       </c>
-      <c r="D28" t="s">
-        <v>185</v>
-      </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I28" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="J28">
-        <v>4879</v>
+        <v>24101</v>
       </c>
       <c r="K28" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="L28" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M28" s="5">
-        <v>23786</v>
+        <v>9095</v>
       </c>
       <c r="N28" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="O28" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="P28">
-        <v>171699905</v>
+        <v>795968139</v>
       </c>
       <c r="Q28" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="R28" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="S28" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="T28" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="U28" s="2">
         <v>9874563210</v>
@@ -7134,75 +7091,72 @@
         <v>123654789</v>
       </c>
       <c r="W28" t="s">
-        <v>1441</v>
+        <v>1428</v>
       </c>
       <c r="Y28" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z28" t="s">
-        <v>1341</v>
+        <v>1329</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>1241</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="29" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
-      </c>
-      <c r="E29" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="F29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H29" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I29" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="J29">
-        <v>24101</v>
+        <v>80336</v>
       </c>
       <c r="K29" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="L29" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M29" s="5">
-        <v>9095</v>
+        <v>32452</v>
       </c>
       <c r="N29" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="O29" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="P29">
-        <v>795968139</v>
+        <v>112620810</v>
       </c>
       <c r="Q29" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="R29" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="S29" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="T29" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="U29" s="2">
         <v>9874563210</v>
@@ -7211,72 +7165,75 @@
         <v>123654789</v>
       </c>
       <c r="W29" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
       <c r="Y29" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z29" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>1242</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" t="s">
         <v>197</v>
       </c>
-      <c r="D30" t="s">
-        <v>196</v>
+      <c r="E30" t="s">
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I30" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="J30">
-        <v>80336</v>
+        <v>38389</v>
       </c>
       <c r="K30" t="s">
         <v>552</v>
       </c>
       <c r="L30" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M30" s="5">
-        <v>32452</v>
+        <v>36202</v>
       </c>
       <c r="N30" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="O30" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="P30">
-        <v>112620810</v>
+        <v>221606465</v>
       </c>
       <c r="Q30" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="R30" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="S30" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="T30" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="U30" s="2">
         <v>9874563210</v>
@@ -7285,75 +7242,75 @@
         <v>123654789</v>
       </c>
       <c r="W30" t="s">
-        <v>1443</v>
+        <v>1430</v>
       </c>
       <c r="Y30" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z30" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>1243</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D31" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J31">
-        <v>38389</v>
+        <v>4773</v>
       </c>
       <c r="K31" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="L31" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M31" s="5">
-        <v>36202</v>
+        <v>24043</v>
       </c>
       <c r="N31" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="O31" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="P31">
-        <v>221606465</v>
+        <v>319680021</v>
       </c>
       <c r="Q31" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="R31" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="S31" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="T31" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="U31" s="2">
         <v>9874563210</v>
@@ -7362,75 +7319,75 @@
         <v>123654789</v>
       </c>
       <c r="W31" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="Y31" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z31" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>1244</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="32" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G32" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H32" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I32" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="J32">
-        <v>4773</v>
+        <v>32795</v>
       </c>
       <c r="K32" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="L32" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M32" s="5">
-        <v>24043</v>
+        <v>44681</v>
       </c>
       <c r="N32" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="O32" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="P32">
-        <v>319680021</v>
+        <v>481970735</v>
       </c>
       <c r="Q32" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="R32" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="S32" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="T32" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="U32" s="2">
         <v>9874563210</v>
@@ -7439,75 +7396,75 @@
         <v>123654789</v>
       </c>
       <c r="W32" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="Y32" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z32" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>1245</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="33" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D33" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G33" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H33" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>219</v>
       </c>
       <c r="J33">
-        <v>32795</v>
+        <v>45222</v>
       </c>
       <c r="K33" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="L33" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M33" s="5">
-        <v>44681</v>
+        <v>23224</v>
       </c>
       <c r="N33" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="O33" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="P33">
-        <v>481970735</v>
+        <v>157178873</v>
       </c>
       <c r="Q33" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="R33" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="S33" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="T33" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="U33" s="2">
         <v>9874563210</v>
@@ -7516,75 +7473,75 @@
         <v>123654789</v>
       </c>
       <c r="W33" t="s">
-        <v>1446</v>
+        <v>1433</v>
       </c>
       <c r="Y33" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z33" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>1246</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="34" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D34" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E34" t="s">
         <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G34" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H34" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I34" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J34">
-        <v>45222</v>
+        <v>25315</v>
       </c>
       <c r="K34" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="L34" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M34" s="5">
-        <v>23224</v>
+        <v>43792</v>
       </c>
       <c r="N34" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="O34" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="P34">
-        <v>157178873</v>
+        <v>936022514</v>
       </c>
       <c r="Q34" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="R34" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="S34" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="T34" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="U34" s="2">
         <v>9874563210</v>
@@ -7593,75 +7550,75 @@
         <v>123654789</v>
       </c>
       <c r="W34" t="s">
-        <v>1447</v>
+        <v>1434</v>
       </c>
       <c r="Y34" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z34" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>1247</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="35" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D35" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G35" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H35" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I35" t="s">
-        <v>229</v>
+        <v>75</v>
       </c>
       <c r="J35">
-        <v>25315</v>
+        <v>44518</v>
       </c>
       <c r="K35" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="L35" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M35" s="5">
-        <v>43792</v>
+        <v>28909</v>
       </c>
       <c r="N35" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="O35" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="P35">
-        <v>936022514</v>
+        <v>514616524</v>
       </c>
       <c r="Q35" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="R35" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="S35" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="T35" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="U35" s="2">
         <v>9874563210</v>
@@ -7670,30 +7627,27 @@
         <v>123654789</v>
       </c>
       <c r="W35" t="s">
-        <v>1448</v>
+        <v>1435</v>
       </c>
       <c r="Y35" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z35" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>1248</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="36" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>231</v>
       </c>
       <c r="D36" t="s">
-        <v>230</v>
-      </c>
-      <c r="E36" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="F36" t="s">
         <v>232</v>
@@ -7705,40 +7659,40 @@
         <v>234</v>
       </c>
       <c r="I36" t="s">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="J36">
-        <v>44518</v>
+        <v>62801</v>
       </c>
       <c r="K36" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="L36" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M36" s="5">
-        <v>28909</v>
+        <v>10490</v>
       </c>
       <c r="N36" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="O36" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="P36">
-        <v>514616524</v>
+        <v>263423729</v>
       </c>
       <c r="Q36" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="R36" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="S36" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="T36" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="U36" s="2">
         <v>9874563210</v>
@@ -7747,72 +7701,75 @@
         <v>123654789</v>
       </c>
       <c r="W36" t="s">
-        <v>1449</v>
+        <v>1436</v>
       </c>
       <c r="Y36" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z36" t="s">
-        <v>1349</v>
+        <v>1337</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
     </row>
-    <row r="37" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>236</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
       </c>
       <c r="F37" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G37" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H37" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I37" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J37">
-        <v>62801</v>
+        <v>62675</v>
       </c>
       <c r="K37" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L37" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M37" s="5">
-        <v>10490</v>
+        <v>30259</v>
       </c>
       <c r="N37" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="O37" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="P37">
-        <v>263423729</v>
+        <v>638933449</v>
       </c>
       <c r="Q37" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="R37" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="S37" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="T37" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="U37" s="2">
         <v>9874563210</v>
@@ -7821,75 +7778,75 @@
         <v>123654789</v>
       </c>
       <c r="W37" t="s">
-        <v>1450</v>
+        <v>1437</v>
       </c>
       <c r="Y37" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z37" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>1250</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D38" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" t="s">
+        <v>244</v>
+      </c>
+      <c r="G38" t="s">
+        <v>245</v>
+      </c>
+      <c r="H38" t="s">
+        <v>246</v>
+      </c>
+      <c r="I38" t="s">
         <v>56</v>
       </c>
-      <c r="F38" t="s">
-        <v>242</v>
-      </c>
-      <c r="G38" t="s">
-        <v>243</v>
-      </c>
-      <c r="H38" t="s">
-        <v>244</v>
-      </c>
-      <c r="I38" t="s">
-        <v>245</v>
-      </c>
       <c r="J38">
-        <v>62675</v>
+        <v>45329</v>
       </c>
       <c r="K38" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="L38" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M38" s="5">
-        <v>30259</v>
+        <v>21309</v>
       </c>
       <c r="N38" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="O38" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="P38">
-        <v>638933449</v>
+        <v>327990531</v>
       </c>
       <c r="Q38" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="R38" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="S38" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="T38" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="U38" s="2">
         <v>9874563210</v>
@@ -7898,75 +7855,75 @@
         <v>123654789</v>
       </c>
       <c r="W38" t="s">
-        <v>1451</v>
+        <v>1438</v>
       </c>
       <c r="Y38" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z38" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>1251</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" t="s">
         <v>247</v>
       </c>
-      <c r="D39" t="s">
-        <v>246</v>
-      </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G39" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H39" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I39" t="s">
-        <v>60</v>
+        <v>252</v>
       </c>
       <c r="J39">
-        <v>45329</v>
+        <v>94760</v>
       </c>
       <c r="K39" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="L39" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M39" s="5">
-        <v>21309</v>
+        <v>16289</v>
       </c>
       <c r="N39" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="O39" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="P39">
-        <v>327990531</v>
+        <v>726866517</v>
       </c>
       <c r="Q39" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="R39" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="S39" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="T39" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="U39" s="2">
         <v>9874563210</v>
@@ -7975,75 +7932,75 @@
         <v>123654789</v>
       </c>
       <c r="W39" t="s">
-        <v>1452</v>
+        <v>1439</v>
       </c>
       <c r="Y39" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z39" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>1252</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>252</v>
+        <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E40" t="s">
         <v>42</v>
       </c>
       <c r="F40" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G40" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H40" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J40">
-        <v>94760</v>
+        <v>82134</v>
       </c>
       <c r="K40" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L40" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M40" s="5">
-        <v>16289</v>
+        <v>6454</v>
       </c>
       <c r="N40" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="O40" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="P40">
-        <v>726866517</v>
+        <v>856421010</v>
       </c>
       <c r="Q40" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="R40" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="S40" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="T40" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="U40" s="2">
         <v>9874563210</v>
@@ -8052,75 +8009,72 @@
         <v>123654789</v>
       </c>
       <c r="W40" t="s">
-        <v>1453</v>
+        <v>1440</v>
       </c>
       <c r="Y40" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z40" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>1253</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="D41" t="s">
-        <v>257</v>
-      </c>
-      <c r="E41" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="F41" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G41" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H41" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I41" t="s">
-        <v>261</v>
+        <v>56</v>
       </c>
       <c r="J41">
-        <v>82134</v>
+        <v>61278</v>
       </c>
       <c r="K41" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="L41" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M41" s="5">
-        <v>6454</v>
+        <v>6725</v>
       </c>
       <c r="N41" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="O41" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="P41">
-        <v>856421010</v>
+        <v>679094100</v>
       </c>
       <c r="Q41" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="R41" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="S41" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="T41" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="U41" s="2">
         <v>9874563210</v>
@@ -8129,27 +8083,30 @@
         <v>123654789</v>
       </c>
       <c r="W41" t="s">
-        <v>1454</v>
+        <v>1441</v>
       </c>
       <c r="Y41" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z41" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>1254</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>262</v>
       </c>
       <c r="D42" t="s">
-        <v>246</v>
+        <v>47</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
       </c>
       <c r="F42" t="s">
         <v>263</v>
@@ -8161,40 +8118,40 @@
         <v>265</v>
       </c>
       <c r="I42" t="s">
-        <v>60</v>
+        <v>266</v>
       </c>
       <c r="J42">
-        <v>61278</v>
+        <v>57951</v>
       </c>
       <c r="K42" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="L42" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M42" s="5">
-        <v>6725</v>
+        <v>37132</v>
       </c>
       <c r="N42" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="O42" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="P42">
-        <v>679094100</v>
+        <v>98416758</v>
       </c>
       <c r="Q42" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="R42" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="S42" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="T42" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="U42" s="2">
         <v>9874563210</v>
@@ -8203,75 +8160,72 @@
         <v>123654789</v>
       </c>
       <c r="W42" t="s">
-        <v>1455</v>
+        <v>1442</v>
       </c>
       <c r="Y42" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z42" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
       <c r="AA42" s="4" t="s">
-        <v>1255</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F43" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G43" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H43" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J43">
-        <v>57951</v>
+        <v>2268</v>
       </c>
       <c r="K43" t="s">
-        <v>569</v>
+        <v>529</v>
       </c>
       <c r="L43" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M43" s="5">
-        <v>37132</v>
+        <v>16109</v>
       </c>
       <c r="N43" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="O43" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="P43">
-        <v>98416758</v>
+        <v>294218510</v>
       </c>
       <c r="Q43" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="R43" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="S43" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="T43" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="U43" s="2">
         <v>9874563210</v>
@@ -8280,72 +8234,75 @@
         <v>123654789</v>
       </c>
       <c r="W43" t="s">
-        <v>1456</v>
+        <v>1443</v>
       </c>
       <c r="Y43" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z43" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="AA43" s="4" t="s">
-        <v>1256</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>272</v>
+      </c>
+      <c r="E44" t="s">
+        <v>55</v>
       </c>
       <c r="F44" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G44" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H44" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I44" t="s">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="J44">
-        <v>2268</v>
+        <v>45225</v>
       </c>
       <c r="K44" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="L44" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M44" s="5">
-        <v>16109</v>
+        <v>20480</v>
       </c>
       <c r="N44" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="O44" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="P44">
-        <v>294218510</v>
+        <v>504393753</v>
       </c>
       <c r="Q44" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="R44" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="S44" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="T44" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="U44" s="2">
         <v>9874563210</v>
@@ -8354,75 +8311,75 @@
         <v>123654789</v>
       </c>
       <c r="W44" t="s">
-        <v>1457</v>
+        <v>1444</v>
       </c>
       <c r="Y44" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z44" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="AA44" s="4" t="s">
-        <v>1257</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D45" t="s">
         <v>277</v>
       </c>
-      <c r="D45" t="s">
-        <v>276</v>
-      </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G45" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H45" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I45" t="s">
-        <v>114</v>
+        <v>282</v>
       </c>
       <c r="J45">
-        <v>45225</v>
+        <v>67422</v>
       </c>
       <c r="K45" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="L45" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M45" s="5">
-        <v>20480</v>
+        <v>34694</v>
       </c>
       <c r="N45" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="O45" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="P45">
-        <v>504393753</v>
+        <v>975281898</v>
       </c>
       <c r="Q45" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="R45" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="S45" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="T45" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="U45" s="2">
         <v>9874563210</v>
@@ -8431,75 +8388,75 @@
         <v>123654789</v>
       </c>
       <c r="W45" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="Y45" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z45" t="s">
-        <v>1358</v>
+        <v>1346</v>
       </c>
       <c r="AA45" s="4" t="s">
-        <v>1258</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D46" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E46" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G46" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H46" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I46" t="s">
-        <v>286</v>
+        <v>63</v>
       </c>
       <c r="J46">
-        <v>67422</v>
+        <v>21452</v>
       </c>
       <c r="K46" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="L46" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M46" s="5">
-        <v>34694</v>
+        <v>13437</v>
       </c>
       <c r="N46" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="O46" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="P46">
-        <v>975281898</v>
+        <v>886840540</v>
       </c>
       <c r="Q46" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="R46" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="S46" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="T46" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="U46" s="2">
         <v>9874563210</v>
@@ -8508,75 +8465,75 @@
         <v>123654789</v>
       </c>
       <c r="W46" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="Y46" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z46" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
       <c r="AA46" s="4" t="s">
-        <v>1259</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
+        <v>289</v>
+      </c>
+      <c r="D47" t="s">
         <v>288</v>
-      </c>
-      <c r="D47" t="s">
-        <v>287</v>
       </c>
       <c r="E47" t="s">
         <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G47" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H47" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I47" t="s">
-        <v>67</v>
+        <v>293</v>
       </c>
       <c r="J47">
-        <v>21452</v>
+        <v>628</v>
       </c>
       <c r="K47" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="L47" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M47" s="5">
-        <v>13437</v>
+        <v>15011</v>
       </c>
       <c r="N47" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="O47" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="P47">
-        <v>886840540</v>
+        <v>932771401</v>
       </c>
       <c r="Q47" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="R47" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="S47" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="T47" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="U47" s="2">
         <v>9874563210</v>
@@ -8585,75 +8542,75 @@
         <v>123654789</v>
       </c>
       <c r="W47" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="Y47" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z47" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
       <c r="AA47" s="4" t="s">
-        <v>1260</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D48" t="s">
-        <v>292</v>
+        <v>176</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G48" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H48" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I48" t="s">
-        <v>297</v>
+        <v>241</v>
       </c>
       <c r="J48">
-        <v>628</v>
+        <v>37614</v>
       </c>
       <c r="K48" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="L48" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M48" s="5">
-        <v>15011</v>
+        <v>4493</v>
       </c>
       <c r="N48" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="O48" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="P48">
-        <v>932771401</v>
+        <v>311300992</v>
       </c>
       <c r="Q48" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="R48" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="S48" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="T48" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="U48" s="2">
         <v>9874563210</v>
@@ -8662,75 +8619,75 @@
         <v>123654789</v>
       </c>
       <c r="W48" t="s">
-        <v>1461</v>
+        <v>1448</v>
       </c>
       <c r="Y48" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z48" t="s">
-        <v>1361</v>
+        <v>1349</v>
       </c>
       <c r="AA48" s="4" t="s">
-        <v>1261</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
+        <v>299</v>
+      </c>
+      <c r="D49" t="s">
         <v>298</v>
-      </c>
-      <c r="D49" t="s">
-        <v>180</v>
       </c>
       <c r="E49" t="s">
         <v>42</v>
       </c>
       <c r="F49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G49" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H49" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I49" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="J49">
-        <v>37614</v>
+        <v>14191</v>
       </c>
       <c r="K49" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="L49" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M49" s="5">
-        <v>4493</v>
+        <v>33913</v>
       </c>
       <c r="N49" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="O49" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="P49">
-        <v>311300992</v>
+        <v>72667333</v>
       </c>
       <c r="Q49" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="R49" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="S49" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="T49" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="U49" s="2">
         <v>9874563210</v>
@@ -8739,30 +8696,27 @@
         <v>123654789</v>
       </c>
       <c r="W49" t="s">
-        <v>1462</v>
+        <v>1449</v>
       </c>
       <c r="Y49" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z49" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="AA49" s="4" t="s">
-        <v>1262</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>303</v>
       </c>
       <c r="D50" t="s">
-        <v>302</v>
-      </c>
-      <c r="E50" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F50" t="s">
         <v>304</v>
@@ -8771,43 +8725,43 @@
         <v>305</v>
       </c>
       <c r="H50" t="s">
+        <v>206</v>
+      </c>
+      <c r="I50" t="s">
         <v>306</v>
       </c>
-      <c r="I50" t="s">
-        <v>179</v>
-      </c>
       <c r="J50">
-        <v>14191</v>
+        <v>28456</v>
       </c>
       <c r="K50" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="L50" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M50" s="5">
-        <v>33913</v>
+        <v>16478</v>
       </c>
       <c r="N50" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="O50" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="P50">
-        <v>72667333</v>
+        <v>600647551</v>
       </c>
       <c r="Q50" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="R50" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="S50" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="T50" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="U50" s="2">
         <v>9874563210</v>
@@ -8816,72 +8770,75 @@
         <v>123654789</v>
       </c>
       <c r="W50" t="s">
-        <v>1463</v>
+        <v>1450</v>
       </c>
       <c r="Y50" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z50" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
       <c r="AA50" s="4" t="s">
-        <v>1263</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
+        <v>308</v>
+      </c>
+      <c r="D51" t="s">
         <v>307</v>
       </c>
-      <c r="D51" t="s">
-        <v>61</v>
+      <c r="E51" t="s">
+        <v>42</v>
       </c>
       <c r="F51" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G51" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H51" t="s">
-        <v>210</v>
+        <v>311</v>
       </c>
       <c r="I51" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J51">
-        <v>28456</v>
+        <v>47851</v>
       </c>
       <c r="K51" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L51" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M51" s="5">
-        <v>16478</v>
+        <v>24684</v>
       </c>
       <c r="N51" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="O51" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="P51">
-        <v>600647551</v>
+        <v>611375515</v>
       </c>
       <c r="Q51" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="R51" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="S51" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="T51" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="U51" s="2">
         <v>9874563210</v>
@@ -8890,27 +8847,27 @@
         <v>123654789</v>
       </c>
       <c r="W51" t="s">
-        <v>1464</v>
+        <v>1451</v>
       </c>
       <c r="Y51" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z51" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
       <c r="AA51" s="4" t="s">
-        <v>1264</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="D52" t="s">
-        <v>311</v>
+        <v>52</v>
       </c>
       <c r="E52" t="s">
         <v>42</v>
@@ -8925,40 +8882,40 @@
         <v>315</v>
       </c>
       <c r="I52" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="J52">
-        <v>47851</v>
+        <v>15084</v>
       </c>
       <c r="K52" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L52" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M52" s="5">
-        <v>24684</v>
+        <v>42580</v>
       </c>
       <c r="N52" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="O52" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="P52">
-        <v>611375515</v>
+        <v>698825978</v>
       </c>
       <c r="Q52" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="R52" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="S52" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="T52" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="U52" s="2">
         <v>9874563210</v>
@@ -8967,75 +8924,75 @@
         <v>123654789</v>
       </c>
       <c r="W52" t="s">
-        <v>1465</v>
+        <v>1452</v>
       </c>
       <c r="Y52" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z52" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
       <c r="AA52" s="4" t="s">
-        <v>1265</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="D53" t="s">
-        <v>53</v>
+        <v>318</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F53" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G53" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H53" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I53" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="J53">
-        <v>15084</v>
+        <v>21928</v>
       </c>
       <c r="K53" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="L53" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M53" s="5">
-        <v>42580</v>
+        <v>21733</v>
       </c>
       <c r="N53" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="O53" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="P53">
-        <v>698825978</v>
+        <v>912905428</v>
       </c>
       <c r="Q53" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="R53" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="S53" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="T53" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="U53" s="2">
         <v>9874563210</v>
@@ -9044,75 +9001,75 @@
         <v>123654789</v>
       </c>
       <c r="W53" t="s">
-        <v>1466</v>
+        <v>1453</v>
       </c>
       <c r="Y53" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z53" t="s">
-        <v>1366</v>
+        <v>1354</v>
       </c>
       <c r="AA53" s="4" t="s">
-        <v>1266</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
+        <v>324</v>
+      </c>
+      <c r="D54" t="s">
         <v>323</v>
       </c>
-      <c r="D54" t="s">
-        <v>322</v>
-      </c>
       <c r="E54" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G54" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H54" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I54" t="s">
-        <v>297</v>
+        <v>63</v>
       </c>
       <c r="J54">
-        <v>21928</v>
+        <v>85951</v>
       </c>
       <c r="K54" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="L54" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M54" s="5">
-        <v>21733</v>
+        <v>38041</v>
       </c>
       <c r="N54" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="O54" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="P54">
-        <v>912905428</v>
+        <v>340556542</v>
       </c>
       <c r="Q54" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="R54" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="S54" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="T54" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="U54" s="2">
         <v>9874563210</v>
@@ -9121,75 +9078,75 @@
         <v>123654789</v>
       </c>
       <c r="W54" t="s">
-        <v>1467</v>
+        <v>1454</v>
       </c>
       <c r="Y54" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z54" t="s">
-        <v>1367</v>
+        <v>1355</v>
       </c>
       <c r="AA54" s="4" t="s">
-        <v>1267</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
+        <v>329</v>
+      </c>
+      <c r="D55" t="s">
         <v>328</v>
       </c>
-      <c r="D55" t="s">
-        <v>327</v>
-      </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F55" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G55" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H55" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I55" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="J55">
-        <v>85951</v>
+        <v>90406</v>
       </c>
       <c r="K55" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="L55" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M55" s="5">
-        <v>38041</v>
+        <v>20770</v>
       </c>
       <c r="N55" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="O55" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="P55">
-        <v>340556542</v>
+        <v>854106634</v>
       </c>
       <c r="Q55" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="R55" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="S55" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="T55" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="U55" s="2">
         <v>9874563210</v>
@@ -9198,75 +9155,75 @@
         <v>123654789</v>
       </c>
       <c r="W55" t="s">
-        <v>1468</v>
+        <v>1455</v>
       </c>
       <c r="Y55" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z55" t="s">
-        <v>1368</v>
+        <v>1356</v>
       </c>
       <c r="AA55" s="4" t="s">
-        <v>1268</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>333</v>
       </c>
       <c r="D56" t="s">
-        <v>332</v>
+        <v>176</v>
       </c>
       <c r="E56" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s">
         <v>334</v>
       </c>
       <c r="G56" t="s">
+        <v>301</v>
+      </c>
+      <c r="H56" t="s">
         <v>335</v>
       </c>
-      <c r="H56" t="s">
-        <v>336</v>
-      </c>
       <c r="I56" t="s">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="J56">
-        <v>90406</v>
+        <v>51114</v>
       </c>
       <c r="K56" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="L56" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M56" s="5">
-        <v>20770</v>
+        <v>35179</v>
       </c>
       <c r="N56" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="O56" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="P56">
-        <v>854106634</v>
+        <v>409176285</v>
       </c>
       <c r="Q56" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="R56" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="S56" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="T56" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="U56" s="2">
         <v>9874563210</v>
@@ -9275,75 +9232,72 @@
         <v>123654789</v>
       </c>
       <c r="W56" t="s">
-        <v>1469</v>
+        <v>1456</v>
       </c>
       <c r="Y56" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z56" t="s">
-        <v>1369</v>
+        <v>1357</v>
       </c>
       <c r="AA56" s="4" t="s">
-        <v>1269</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>337</v>
       </c>
       <c r="D57" t="s">
-        <v>180</v>
-      </c>
-      <c r="E57" t="s">
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="F57" t="s">
         <v>338</v>
       </c>
       <c r="G57" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="H57" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I57" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="J57">
-        <v>51114</v>
+        <v>52626</v>
       </c>
       <c r="K57" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L57" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M57" s="5">
-        <v>35179</v>
+        <v>33153</v>
       </c>
       <c r="N57" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="O57" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="P57">
-        <v>409176285</v>
+        <v>893491526</v>
       </c>
       <c r="Q57" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="R57" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="S57" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="T57" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="U57" s="2">
         <v>9874563210</v>
@@ -9352,72 +9306,72 @@
         <v>123654789</v>
       </c>
       <c r="W57" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
       <c r="Y57" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z57" t="s">
-        <v>1370</v>
+        <v>1358</v>
       </c>
       <c r="AA57" s="4" t="s">
-        <v>1270</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D58" t="s">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="F58" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G58" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H58" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I58" t="s">
-        <v>345</v>
+        <v>31</v>
       </c>
       <c r="J58">
-        <v>52626</v>
+        <v>21126</v>
       </c>
       <c r="K58" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="L58" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M58" s="5">
-        <v>33153</v>
+        <v>4743</v>
       </c>
       <c r="N58" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="O58" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="P58">
-        <v>893491526</v>
+        <v>146251479</v>
       </c>
       <c r="Q58" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="R58" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="S58" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="T58" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="U58" s="2">
         <v>9874563210</v>
@@ -9426,27 +9380,30 @@
         <v>123654789</v>
       </c>
       <c r="W58" t="s">
-        <v>1471</v>
+        <v>1458</v>
       </c>
       <c r="Y58" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z58" t="s">
-        <v>1371</v>
+        <v>1359</v>
       </c>
       <c r="AA58" s="4" t="s">
-        <v>1271</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>346</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>226</v>
+      </c>
+      <c r="E59" t="s">
+        <v>34</v>
       </c>
       <c r="F59" t="s">
         <v>347</v>
@@ -9458,40 +9415,40 @@
         <v>349</v>
       </c>
       <c r="I59" t="s">
-        <v>31</v>
+        <v>350</v>
       </c>
       <c r="J59">
-        <v>21126</v>
+        <v>56651</v>
       </c>
       <c r="K59" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="L59" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M59" s="5">
-        <v>4743</v>
-      </c>
-      <c r="N59" t="s">
-        <v>672</v>
+        <v>10576</v>
+      </c>
+      <c r="N59">
+        <v>3187</v>
       </c>
       <c r="O59" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="P59">
-        <v>146251479</v>
+        <v>675342703</v>
       </c>
       <c r="Q59" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="R59" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="S59" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="T59" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="U59" s="2">
         <v>9874563210</v>
@@ -9500,75 +9457,75 @@
         <v>123654789</v>
       </c>
       <c r="W59" t="s">
-        <v>1472</v>
+        <v>1459</v>
       </c>
       <c r="Y59" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z59" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
       <c r="AA59" s="4" t="s">
-        <v>1272</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D60" t="s">
-        <v>230</v>
+        <v>351</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F60" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G60" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H60" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I60" t="s">
-        <v>354</v>
+        <v>146</v>
       </c>
       <c r="J60">
-        <v>56651</v>
+        <v>77363</v>
       </c>
       <c r="K60" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="L60" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M60" s="5">
-        <v>10576</v>
-      </c>
-      <c r="N60">
-        <v>3187</v>
+        <v>38829</v>
+      </c>
+      <c r="N60" t="s">
+        <v>667</v>
       </c>
       <c r="O60" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="P60">
-        <v>675342703</v>
+        <v>730609395</v>
       </c>
       <c r="Q60" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="R60" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="S60" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="T60" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="U60" s="2">
         <v>9874563210</v>
@@ -9577,30 +9534,30 @@
         <v>123654789</v>
       </c>
       <c r="W60" t="s">
-        <v>1473</v>
+        <v>1460</v>
       </c>
       <c r="Y60" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z60" t="s">
-        <v>1373</v>
+        <v>1361</v>
       </c>
       <c r="AA60" s="4" t="s">
-        <v>1273</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" t="s">
         <v>356</v>
       </c>
-      <c r="D61" t="s">
-        <v>355</v>
-      </c>
       <c r="E61" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F61" t="s">
         <v>357</v>
@@ -9612,40 +9569,40 @@
         <v>359</v>
       </c>
       <c r="I61" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="J61">
-        <v>77363</v>
+        <v>90711</v>
       </c>
       <c r="K61" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L61" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M61" s="5">
-        <v>38829</v>
+        <v>18433</v>
       </c>
       <c r="N61" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="O61" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="P61">
-        <v>730609395</v>
+        <v>453438172</v>
       </c>
       <c r="Q61" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="R61" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="S61" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="T61" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="U61" s="2">
         <v>9874563210</v>
@@ -9654,75 +9611,72 @@
         <v>123654789</v>
       </c>
       <c r="W61" t="s">
-        <v>1474</v>
+        <v>1461</v>
       </c>
       <c r="Y61" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z61" t="s">
-        <v>1374</v>
+        <v>1362</v>
       </c>
       <c r="AA61" s="4" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>361</v>
       </c>
       <c r="D62" t="s">
         <v>360</v>
       </c>
-      <c r="E62" t="s">
-        <v>42</v>
-      </c>
       <c r="F62" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G62" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H62" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I62" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="J62">
-        <v>90711</v>
+        <v>48357</v>
       </c>
       <c r="K62" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="L62" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M62" s="5">
-        <v>18433</v>
+        <v>6664</v>
       </c>
       <c r="N62" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="O62" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="P62">
-        <v>453438172</v>
+        <v>999371467</v>
       </c>
       <c r="Q62" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="R62" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="S62" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="T62" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="U62" s="2">
         <v>9874563210</v>
@@ -9731,72 +9685,75 @@
         <v>123654789</v>
       </c>
       <c r="W62" t="s">
-        <v>1475</v>
+        <v>1462</v>
       </c>
       <c r="Y62" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z62" t="s">
-        <v>1375</v>
+        <v>1363</v>
       </c>
       <c r="AA62" s="4" t="s">
-        <v>1275</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" t="s">
         <v>365</v>
       </c>
-      <c r="D63" t="s">
-        <v>364</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>366</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>367</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>368</v>
       </c>
-      <c r="I63" t="s">
-        <v>132</v>
-      </c>
       <c r="J63">
-        <v>48357</v>
+        <v>5204</v>
       </c>
       <c r="K63" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="L63" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M63" s="5">
-        <v>6664</v>
+        <v>10782</v>
       </c>
       <c r="N63" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="O63" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="P63">
-        <v>999371467</v>
+        <v>523292637</v>
       </c>
       <c r="Q63" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="R63" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="S63" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="T63" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="U63" s="2">
         <v>9874563210</v>
@@ -9805,75 +9762,75 @@
         <v>123654789</v>
       </c>
       <c r="W63" t="s">
-        <v>1476</v>
+        <v>1463</v>
       </c>
       <c r="Y63" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z63" t="s">
-        <v>1376</v>
+        <v>1364</v>
       </c>
       <c r="AA63" s="4" t="s">
-        <v>1276</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
+        <v>370</v>
+      </c>
+      <c r="D64" t="s">
+        <v>369</v>
+      </c>
+      <c r="E64" t="s">
         <v>55</v>
       </c>
-      <c r="D64" t="s">
-        <v>196</v>
-      </c>
-      <c r="E64" t="s">
-        <v>42</v>
-      </c>
       <c r="F64" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G64" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H64" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="I64" t="s">
-        <v>372</v>
+        <v>75</v>
       </c>
       <c r="J64">
-        <v>5204</v>
+        <v>37239</v>
       </c>
       <c r="K64" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="L64" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M64" s="5">
-        <v>10782</v>
+        <v>37662</v>
       </c>
       <c r="N64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="O64" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="P64">
-        <v>523292637</v>
+        <v>142739617</v>
       </c>
       <c r="Q64" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="R64" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="S64" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="T64" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="U64" s="2">
         <v>9874563210</v>
@@ -9882,30 +9839,30 @@
         <v>123654789</v>
       </c>
       <c r="W64" t="s">
-        <v>1477</v>
+        <v>1464</v>
       </c>
       <c r="Y64" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z64" t="s">
-        <v>1377</v>
+        <v>1365</v>
       </c>
       <c r="AA64" s="4" t="s">
-        <v>1277</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
+        <v>324</v>
+      </c>
+      <c r="D65" t="s">
         <v>374</v>
       </c>
-      <c r="D65" t="s">
-        <v>373</v>
-      </c>
       <c r="E65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F65" t="s">
         <v>375</v>
@@ -9917,40 +9874,40 @@
         <v>377</v>
       </c>
       <c r="I65" t="s">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="J65">
-        <v>37239</v>
+        <v>85701</v>
       </c>
       <c r="K65" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="L65" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M65" s="5">
-        <v>37662</v>
+        <v>7604</v>
       </c>
       <c r="N65" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="O65" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="P65">
-        <v>142739617</v>
+        <v>637981686</v>
       </c>
       <c r="Q65" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="R65" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="S65" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="T65" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="U65" s="2">
         <v>9874563210</v>
@@ -9959,30 +9916,30 @@
         <v>123654789</v>
       </c>
       <c r="W65" t="s">
-        <v>1478</v>
+        <v>1465</v>
       </c>
       <c r="Y65" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z65" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="AA65" s="4" t="s">
-        <v>1278</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>328</v>
+        <v>378</v>
       </c>
       <c r="D66" t="s">
-        <v>378</v>
+        <v>81</v>
       </c>
       <c r="E66" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F66" t="s">
         <v>379</v>
@@ -9994,40 +9951,40 @@
         <v>381</v>
       </c>
       <c r="I66" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="J66">
-        <v>85701</v>
+        <v>72536</v>
       </c>
       <c r="K66" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="L66" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M66" s="5">
-        <v>7604</v>
-      </c>
-      <c r="N66" t="s">
-        <v>678</v>
+        <v>31279</v>
+      </c>
+      <c r="N66">
+        <v>4959</v>
       </c>
       <c r="O66" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="P66">
-        <v>637981686</v>
+        <v>468153117</v>
       </c>
       <c r="Q66" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="R66" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="S66" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="T66" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="U66" s="2">
         <v>9874563210</v>
@@ -10036,30 +9993,30 @@
         <v>123654789</v>
       </c>
       <c r="W66" t="s">
-        <v>1479</v>
+        <v>1466</v>
       </c>
       <c r="Y66" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z66" t="s">
-        <v>1379</v>
+        <v>1367</v>
       </c>
       <c r="AA66" s="4" t="s">
-        <v>1279</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
         <v>382</v>
       </c>
       <c r="D67" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
         <v>383</v>
@@ -10071,40 +10028,40 @@
         <v>385</v>
       </c>
       <c r="I67" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J67">
-        <v>72536</v>
+        <v>36210</v>
       </c>
       <c r="K67" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="L67" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M67" s="5">
-        <v>31279</v>
-      </c>
-      <c r="N67">
-        <v>4959</v>
+        <v>36348</v>
+      </c>
+      <c r="N67" t="s">
+        <v>673</v>
       </c>
       <c r="O67" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="P67">
-        <v>468153117</v>
+        <v>958239826</v>
       </c>
       <c r="Q67" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="R67" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="S67" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="T67" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="U67" s="2">
         <v>9874563210</v>
@@ -10113,75 +10070,72 @@
         <v>123654789</v>
       </c>
       <c r="W67" t="s">
-        <v>1480</v>
+        <v>1467</v>
       </c>
       <c r="Y67" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z67" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="AA67" s="4" t="s">
-        <v>1280</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
+        <v>387</v>
+      </c>
+      <c r="D68" t="s">
         <v>386</v>
       </c>
-      <c r="D68" t="s">
-        <v>53</v>
-      </c>
-      <c r="E68" t="s">
-        <v>42</v>
-      </c>
       <c r="F68" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G68" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H68" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I68" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J68">
-        <v>36210</v>
+        <v>55992</v>
       </c>
       <c r="K68" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="L68" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M68" s="5">
-        <v>36348</v>
+        <v>17865</v>
       </c>
       <c r="N68" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="O68" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="P68">
-        <v>958239826</v>
+        <v>940664599</v>
       </c>
       <c r="Q68" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="R68" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="S68" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="T68" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="U68" s="2">
         <v>9874563210</v>
@@ -10190,72 +10144,75 @@
         <v>123654789</v>
       </c>
       <c r="W68" t="s">
-        <v>1481</v>
+        <v>1468</v>
       </c>
       <c r="Y68" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z68" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="AA68" s="4" t="s">
-        <v>1281</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
+        <v>392</v>
+      </c>
+      <c r="D69" t="s">
         <v>391</v>
       </c>
-      <c r="D69" t="s">
-        <v>390</v>
+      <c r="E69" t="s">
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G69" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H69" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I69" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J69">
-        <v>55992</v>
+        <v>91004</v>
       </c>
       <c r="K69" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="L69" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M69" s="5">
-        <v>17865</v>
+        <v>39372</v>
       </c>
       <c r="N69" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="O69" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="P69">
-        <v>940664599</v>
+        <v>258364483</v>
       </c>
       <c r="Q69" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="R69" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="S69" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="T69" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="U69" s="2">
         <v>9874563210</v>
@@ -10264,30 +10221,27 @@
         <v>123654789</v>
       </c>
       <c r="W69" t="s">
-        <v>1482</v>
+        <v>1469</v>
       </c>
       <c r="Y69" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z69" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="AA69" s="4" t="s">
-        <v>1282</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
         <v>396</v>
       </c>
       <c r="D70" t="s">
-        <v>395</v>
-      </c>
-      <c r="E70" t="s">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="F70" t="s">
         <v>397</v>
@@ -10299,40 +10253,40 @@
         <v>399</v>
       </c>
       <c r="I70" t="s">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="J70">
-        <v>91004</v>
+        <v>33288</v>
       </c>
       <c r="K70" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="L70" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M70" s="5">
-        <v>39372</v>
+        <v>18858</v>
       </c>
       <c r="N70" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="O70" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="P70">
-        <v>258364483</v>
+        <v>7733097</v>
       </c>
       <c r="Q70" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="R70" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="S70" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="T70" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="U70" s="2">
         <v>9874563210</v>
@@ -10341,27 +10295,30 @@
         <v>123654789</v>
       </c>
       <c r="W70" t="s">
-        <v>1483</v>
+        <v>1470</v>
       </c>
       <c r="Y70" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z70" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="AA70" s="4" t="s">
-        <v>1283</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" t="s">
         <v>400</v>
       </c>
-      <c r="D71" t="s">
-        <v>277</v>
+      <c r="E71" t="s">
+        <v>42</v>
       </c>
       <c r="F71" t="s">
         <v>401</v>
@@ -10373,40 +10330,40 @@
         <v>403</v>
       </c>
       <c r="I71" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="J71">
-        <v>33288</v>
+        <v>72053</v>
       </c>
       <c r="K71" t="s">
-        <v>594</v>
+        <v>556</v>
       </c>
       <c r="L71" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M71" s="5">
-        <v>18858</v>
+        <v>33541</v>
       </c>
       <c r="N71" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="O71" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="P71">
-        <v>7733097</v>
+        <v>70896481</v>
       </c>
       <c r="Q71" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="R71" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="S71" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="T71" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="U71" s="2">
         <v>9874563210</v>
@@ -10415,30 +10372,27 @@
         <v>123654789</v>
       </c>
       <c r="W71" t="s">
-        <v>1484</v>
+        <v>1471</v>
       </c>
       <c r="Y71" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z71" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="AA71" s="4" t="s">
-        <v>1284</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>404</v>
       </c>
       <c r="D72" t="s">
-        <v>404</v>
-      </c>
-      <c r="E72" t="s">
-        <v>42</v>
+        <v>312</v>
       </c>
       <c r="F72" t="s">
         <v>405</v>
@@ -10450,40 +10404,40 @@
         <v>407</v>
       </c>
       <c r="I72" t="s">
-        <v>132</v>
+        <v>293</v>
       </c>
       <c r="J72">
-        <v>72053</v>
+        <v>94057</v>
       </c>
       <c r="K72" t="s">
-        <v>561</v>
+        <v>590</v>
       </c>
       <c r="L72" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M72" s="5">
-        <v>33541</v>
+        <v>23657</v>
       </c>
       <c r="N72" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="O72" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="P72">
-        <v>70896481</v>
+        <v>427161905</v>
       </c>
       <c r="Q72" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="R72" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="S72" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="T72" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="U72" s="2">
         <v>9874563210</v>
@@ -10492,27 +10446,30 @@
         <v>123654789</v>
       </c>
       <c r="W72" t="s">
-        <v>1485</v>
+        <v>1472</v>
       </c>
       <c r="Y72" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z72" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
       <c r="AA72" s="4" t="s">
-        <v>1285</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
         <v>408</v>
       </c>
       <c r="D73" t="s">
-        <v>316</v>
+        <v>197</v>
+      </c>
+      <c r="E73" t="s">
+        <v>55</v>
       </c>
       <c r="F73" t="s">
         <v>409</v>
@@ -10524,40 +10481,40 @@
         <v>411</v>
       </c>
       <c r="I73" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="J73">
-        <v>94057</v>
+        <v>9732</v>
       </c>
       <c r="K73" t="s">
-        <v>595</v>
+        <v>549</v>
       </c>
       <c r="L73" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M73" s="5">
-        <v>23657</v>
+        <v>5656</v>
       </c>
       <c r="N73" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="O73" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="P73">
-        <v>427161905</v>
+        <v>207569399</v>
       </c>
       <c r="Q73" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="R73" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="S73" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="T73" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="U73" s="2">
         <v>9874563210</v>
@@ -10566,75 +10523,75 @@
         <v>123654789</v>
       </c>
       <c r="W73" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="Y73" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z73" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
       <c r="AA73" s="4" t="s">
-        <v>1286</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
+        <v>413</v>
+      </c>
+      <c r="D74" t="s">
         <v>412</v>
       </c>
-      <c r="D74" t="s">
-        <v>201</v>
-      </c>
       <c r="E74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F74" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G74" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H74" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I74" t="s">
-        <v>320</v>
+        <v>417</v>
       </c>
       <c r="J74">
-        <v>9732</v>
+        <v>99511</v>
       </c>
       <c r="K74" t="s">
-        <v>554</v>
+        <v>591</v>
       </c>
       <c r="L74" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M74" s="5">
-        <v>5656</v>
+        <v>4373</v>
       </c>
       <c r="N74" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="O74" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="P74">
-        <v>207569399</v>
+        <v>669333962</v>
       </c>
       <c r="Q74" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="R74" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="S74" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="T74" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="U74" s="2">
         <v>9874563210</v>
@@ -10643,75 +10600,75 @@
         <v>123654789</v>
       </c>
       <c r="W74" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="Y74" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z74" t="s">
-        <v>1387</v>
+        <v>1375</v>
       </c>
       <c r="AA74" s="4" t="s">
-        <v>1287</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D75" t="s">
-        <v>416</v>
+        <v>213</v>
       </c>
       <c r="E75" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F75" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G75" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H75" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I75" t="s">
-        <v>421</v>
+        <v>282</v>
       </c>
       <c r="J75">
-        <v>99511</v>
+        <v>5926</v>
       </c>
       <c r="K75" t="s">
-        <v>596</v>
+        <v>567</v>
       </c>
       <c r="L75" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M75" s="5">
-        <v>4373</v>
+        <v>37279</v>
       </c>
       <c r="N75" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="O75" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="P75">
-        <v>669333962</v>
+        <v>22694204</v>
       </c>
       <c r="Q75" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="R75" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="S75" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="T75" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="U75" s="2">
         <v>9874563210</v>
@@ -10720,30 +10677,30 @@
         <v>123654789</v>
       </c>
       <c r="W75" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="Y75" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z75" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
       <c r="AA75" s="4" t="s">
-        <v>1288</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
+        <v>329</v>
+      </c>
+      <c r="D76" t="s">
         <v>422</v>
       </c>
-      <c r="D76" t="s">
-        <v>217</v>
-      </c>
       <c r="E76" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F76" t="s">
         <v>423</v>
@@ -10755,40 +10712,40 @@
         <v>425</v>
       </c>
       <c r="I76" t="s">
-        <v>286</v>
+        <v>426</v>
       </c>
       <c r="J76">
-        <v>5926</v>
+        <v>98465</v>
       </c>
       <c r="K76" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="L76" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M76" s="5">
-        <v>37279</v>
+        <v>5870</v>
       </c>
       <c r="N76" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="O76" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="P76">
-        <v>22694204</v>
+        <v>694173448</v>
       </c>
       <c r="Q76" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="R76" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="S76" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="T76" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="U76" s="2">
         <v>9874563210</v>
@@ -10797,75 +10754,75 @@
         <v>123654789</v>
       </c>
       <c r="W76" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="Y76" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z76" t="s">
-        <v>1389</v>
+        <v>1377</v>
       </c>
       <c r="AA76" s="4" t="s">
-        <v>1289</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>333</v>
+        <v>427</v>
       </c>
       <c r="D77" t="s">
-        <v>426</v>
+        <v>272</v>
       </c>
       <c r="E77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F77" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G77" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H77" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I77" t="s">
-        <v>430</v>
+        <v>134</v>
       </c>
       <c r="J77">
-        <v>98465</v>
+        <v>41650</v>
       </c>
       <c r="K77" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="L77" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M77" s="5">
-        <v>5870</v>
+        <v>39633</v>
       </c>
       <c r="N77" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="O77" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="P77">
-        <v>694173448</v>
+        <v>92238223</v>
       </c>
       <c r="Q77" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="R77" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="S77" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="T77" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="U77" s="2">
         <v>9874563210</v>
@@ -10874,75 +10831,72 @@
         <v>123654789</v>
       </c>
       <c r="W77" t="s">
-        <v>1490</v>
+        <v>1477</v>
       </c>
       <c r="Y77" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z77" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
       <c r="AA77" s="4" t="s">
-        <v>1290</v>
+        <v>1279</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
+        <v>432</v>
+      </c>
+      <c r="D78" t="s">
         <v>431</v>
       </c>
-      <c r="D78" t="s">
-        <v>276</v>
-      </c>
-      <c r="E78" t="s">
-        <v>56</v>
-      </c>
       <c r="F78" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G78" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H78" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I78" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="J78">
-        <v>41650</v>
+        <v>3827</v>
       </c>
       <c r="K78" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="L78" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M78" s="5">
-        <v>39633</v>
+        <v>37271</v>
       </c>
       <c r="N78" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="O78" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="P78">
-        <v>92238223</v>
+        <v>894645160</v>
       </c>
       <c r="Q78" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="R78" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="S78" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="T78" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="U78" s="2">
         <v>9874563210</v>
@@ -10951,72 +10905,75 @@
         <v>123654789</v>
       </c>
       <c r="W78" t="s">
-        <v>1491</v>
+        <v>1478</v>
       </c>
       <c r="Y78" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z78" t="s">
-        <v>1391</v>
+        <v>1379</v>
       </c>
       <c r="AA78" s="4" t="s">
-        <v>1291</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="79" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
+        <v>437</v>
+      </c>
+      <c r="D79" t="s">
         <v>436</v>
       </c>
-      <c r="D79" t="s">
-        <v>435</v>
+      <c r="E79" t="s">
+        <v>55</v>
       </c>
       <c r="F79" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G79" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H79" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I79" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="J79">
-        <v>3827</v>
+        <v>89297</v>
       </c>
       <c r="K79" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="L79" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M79" s="5">
-        <v>37271</v>
+        <v>42155</v>
       </c>
       <c r="N79" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="O79" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="P79">
-        <v>894645160</v>
+        <v>342209809</v>
       </c>
       <c r="Q79" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="R79" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="S79" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="T79" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="U79" s="2">
         <v>9874563210</v>
@@ -11025,75 +10982,72 @@
         <v>123654789</v>
       </c>
       <c r="W79" t="s">
-        <v>1492</v>
+        <v>1479</v>
       </c>
       <c r="Y79" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z79" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
       <c r="AA79" s="4" t="s">
-        <v>1292</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="80" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
+        <v>442</v>
+      </c>
+      <c r="D80" t="s">
         <v>441</v>
       </c>
-      <c r="D80" t="s">
-        <v>440</v>
-      </c>
-      <c r="E80" t="s">
-        <v>56</v>
-      </c>
       <c r="F80" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G80" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H80" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I80" t="s">
-        <v>67</v>
+        <v>446</v>
       </c>
       <c r="J80">
-        <v>89297</v>
+        <v>76548</v>
       </c>
       <c r="K80" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="L80" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M80" s="5">
-        <v>42155</v>
+        <v>33631</v>
       </c>
       <c r="N80" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="O80" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="P80">
-        <v>342209809</v>
+        <v>312944144</v>
       </c>
       <c r="Q80" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="R80" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="S80" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="T80" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="U80" s="2">
         <v>9874563210</v>
@@ -11102,72 +11056,72 @@
         <v>123654789</v>
       </c>
       <c r="W80" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="Y80" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z80" t="s">
-        <v>1393</v>
+        <v>1381</v>
       </c>
       <c r="AA80" s="4" t="s">
-        <v>1293</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="81" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="D81" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F81" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G81" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H81" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I81" t="s">
-        <v>450</v>
+        <v>110</v>
       </c>
       <c r="J81">
-        <v>76548</v>
+        <v>64663</v>
       </c>
       <c r="K81" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="L81" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M81" s="5">
-        <v>33631</v>
+        <v>15377</v>
       </c>
       <c r="N81" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="O81" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="P81">
-        <v>312944144</v>
+        <v>680824502</v>
       </c>
       <c r="Q81" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="R81" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="S81" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="T81" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="U81" s="2">
         <v>9874563210</v>
@@ -11176,27 +11130,30 @@
         <v>123654789</v>
       </c>
       <c r="W81" t="s">
-        <v>1494</v>
+        <v>1481</v>
       </c>
       <c r="Y81" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z81" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="AA81" s="4" t="s">
-        <v>1294</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="82" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="D82" t="s">
-        <v>451</v>
+        <v>386</v>
+      </c>
+      <c r="E82" t="s">
+        <v>55</v>
       </c>
       <c r="F82" t="s">
         <v>452</v>
@@ -11208,40 +11165,40 @@
         <v>454</v>
       </c>
       <c r="I82" t="s">
-        <v>114</v>
+        <v>241</v>
       </c>
       <c r="J82">
-        <v>64663</v>
+        <v>13403</v>
       </c>
       <c r="K82" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="L82" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M82" s="5">
-        <v>15377</v>
+        <v>3823</v>
       </c>
       <c r="N82" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="O82" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="P82">
-        <v>680824502</v>
+        <v>739403031</v>
       </c>
       <c r="Q82" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="R82" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="S82" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="T82" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="U82" s="2">
         <v>9874563210</v>
@@ -11250,30 +11207,27 @@
         <v>123654789</v>
       </c>
       <c r="W82" t="s">
-        <v>1495</v>
+        <v>1482</v>
       </c>
       <c r="Y82" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z82" t="s">
-        <v>1395</v>
+        <v>1383</v>
       </c>
       <c r="AA82" s="4" t="s">
-        <v>1295</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="83" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
         <v>455</v>
       </c>
       <c r="D83" t="s">
-        <v>390</v>
-      </c>
-      <c r="E83" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="F83" t="s">
         <v>456</v>
@@ -11285,40 +11239,40 @@
         <v>458</v>
       </c>
       <c r="I83" t="s">
-        <v>245</v>
+        <v>459</v>
       </c>
       <c r="J83">
-        <v>13403</v>
+        <v>53568</v>
       </c>
       <c r="K83" t="s">
-        <v>602</v>
+        <v>528</v>
       </c>
       <c r="L83" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M83" s="5">
-        <v>3823</v>
+        <v>37497</v>
       </c>
       <c r="N83" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="O83" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="P83">
-        <v>739403031</v>
+        <v>759608929</v>
       </c>
       <c r="Q83" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="R83" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="S83" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="T83" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="U83" s="2">
         <v>9874563210</v>
@@ -11327,72 +11281,75 @@
         <v>123654789</v>
       </c>
       <c r="W83" t="s">
-        <v>1496</v>
+        <v>1483</v>
       </c>
       <c r="Y83" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z83" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
       <c r="AA83" s="4" t="s">
-        <v>1296</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="84" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D84" t="s">
-        <v>86</v>
+        <v>106</v>
+      </c>
+      <c r="E84" t="s">
+        <v>55</v>
       </c>
       <c r="F84" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G84" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H84" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I84" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J84">
-        <v>53568</v>
+        <v>24148</v>
       </c>
       <c r="K84" t="s">
-        <v>532</v>
+        <v>598</v>
       </c>
       <c r="L84" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M84" s="5">
-        <v>37497</v>
+        <v>9083</v>
       </c>
       <c r="N84" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="O84" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="P84">
-        <v>759608929</v>
+        <v>310748114</v>
       </c>
       <c r="Q84" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="R84" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="S84" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="T84" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="U84" s="2">
         <v>9874563210</v>
@@ -11401,75 +11358,75 @@
         <v>123654789</v>
       </c>
       <c r="W84" t="s">
-        <v>1497</v>
+        <v>1484</v>
       </c>
       <c r="Y84" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z84" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
       <c r="AA84" s="4" t="s">
-        <v>1297</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="85" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
+        <v>317</v>
       </c>
       <c r="E85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F85" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G85" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H85" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I85" t="s">
-        <v>468</v>
+        <v>426</v>
       </c>
       <c r="J85">
-        <v>24148</v>
+        <v>54812</v>
       </c>
       <c r="K85" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="L85" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M85" s="5">
-        <v>9083</v>
+        <v>4775</v>
       </c>
       <c r="N85" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="O85" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="P85">
-        <v>310748114</v>
+        <v>654933571</v>
       </c>
       <c r="Q85" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="R85" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="S85" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="T85" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="U85" s="2">
         <v>9874563210</v>
@@ -11478,75 +11435,75 @@
         <v>123654789</v>
       </c>
       <c r="W85" t="s">
-        <v>1498</v>
+        <v>1485</v>
       </c>
       <c r="Y85" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z85" t="s">
-        <v>1398</v>
+        <v>1386</v>
       </c>
       <c r="AA85" s="4" t="s">
-        <v>1298</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="86" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
+        <v>470</v>
+      </c>
+      <c r="D86" t="s">
         <v>469</v>
       </c>
-      <c r="D86" t="s">
-        <v>321</v>
-      </c>
       <c r="E86" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F86" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G86" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H86" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I86" t="s">
-        <v>430</v>
+        <v>38</v>
       </c>
       <c r="J86">
-        <v>54812</v>
+        <v>49553</v>
       </c>
       <c r="K86" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="L86" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M86" s="5">
-        <v>4775</v>
+        <v>36820</v>
       </c>
       <c r="N86" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="O86" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="P86">
-        <v>654933571</v>
+        <v>853079849</v>
       </c>
       <c r="Q86" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="R86" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="S86" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="T86" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="U86" s="2">
         <v>9874563210</v>
@@ -11555,75 +11512,75 @@
         <v>123654789</v>
       </c>
       <c r="W86" t="s">
-        <v>1499</v>
+        <v>1486</v>
       </c>
       <c r="Y86" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z86" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
       <c r="AA86" s="4" t="s">
-        <v>1299</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="87" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
+        <v>117</v>
+      </c>
+      <c r="D87" t="s">
+        <v>197</v>
+      </c>
+      <c r="E87" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" t="s">
         <v>474</v>
       </c>
-      <c r="D87" t="s">
-        <v>473</v>
-      </c>
-      <c r="E87" t="s">
-        <v>42</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>475</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>476</v>
       </c>
-      <c r="H87" t="s">
-        <v>477</v>
-      </c>
       <c r="I87" t="s">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="J87">
-        <v>49553</v>
+        <v>44583</v>
       </c>
       <c r="K87" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="L87" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M87" s="5">
-        <v>36820</v>
+        <v>17613</v>
       </c>
       <c r="N87" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="O87" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="P87">
-        <v>853079849</v>
+        <v>911577280</v>
       </c>
       <c r="Q87" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="R87" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="S87" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="T87" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="U87" s="2">
         <v>9874563210</v>
@@ -11632,75 +11589,75 @@
         <v>123654789</v>
       </c>
       <c r="W87" t="s">
-        <v>1500</v>
+        <v>1487</v>
       </c>
       <c r="Y87" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z87" t="s">
-        <v>1400</v>
+        <v>1388</v>
       </c>
       <c r="AA87" s="4" t="s">
-        <v>1300</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="88" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>121</v>
+        <v>303</v>
       </c>
       <c r="D88" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="E88" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F88" t="s">
+        <v>477</v>
+      </c>
+      <c r="G88" t="s">
+        <v>291</v>
+      </c>
+      <c r="H88" t="s">
         <v>478</v>
       </c>
-      <c r="G88" t="s">
-        <v>479</v>
-      </c>
-      <c r="H88" t="s">
-        <v>480</v>
-      </c>
       <c r="I88" t="s">
-        <v>223</v>
+        <v>51</v>
       </c>
       <c r="J88">
-        <v>44583</v>
+        <v>40206</v>
       </c>
       <c r="K88" t="s">
-        <v>606</v>
+        <v>550</v>
       </c>
       <c r="L88" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M88" s="5">
-        <v>17613</v>
+        <v>8295</v>
       </c>
       <c r="N88" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="O88" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="P88">
-        <v>911577280</v>
+        <v>134359462</v>
       </c>
       <c r="Q88" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="R88" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="S88" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="T88" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="U88" s="2">
         <v>9874563210</v>
@@ -11709,75 +11666,75 @@
         <v>123654789</v>
       </c>
       <c r="W88" t="s">
-        <v>1501</v>
+        <v>1488</v>
       </c>
       <c r="Y88" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z88" t="s">
-        <v>1401</v>
+        <v>1389</v>
       </c>
       <c r="AA88" s="4" t="s">
-        <v>1301</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="89" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>307</v>
+        <v>479</v>
       </c>
       <c r="D89" t="s">
-        <v>53</v>
+        <v>369</v>
       </c>
       <c r="E89" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F89" t="s">
+        <v>480</v>
+      </c>
+      <c r="G89" t="s">
         <v>481</v>
-      </c>
-      <c r="G89" t="s">
-        <v>295</v>
       </c>
       <c r="H89" t="s">
         <v>482</v>
       </c>
       <c r="I89" t="s">
-        <v>52</v>
+        <v>417</v>
       </c>
       <c r="J89">
-        <v>40206</v>
+        <v>99812</v>
       </c>
       <c r="K89" t="s">
-        <v>555</v>
+        <v>602</v>
       </c>
       <c r="L89" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M89" s="5">
-        <v>8295</v>
+        <v>19072</v>
       </c>
       <c r="N89" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="O89" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="P89">
-        <v>134359462</v>
+        <v>354807308</v>
       </c>
       <c r="Q89" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="R89" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="S89" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="T89" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="U89" s="2">
         <v>9874563210</v>
@@ -11786,75 +11743,75 @@
         <v>123654789</v>
       </c>
       <c r="W89" t="s">
-        <v>1502</v>
+        <v>1489</v>
       </c>
       <c r="Y89" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z89" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="AA89" s="4" t="s">
-        <v>1302</v>
+        <v>1291</v>
       </c>
     </row>
-    <row r="90" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
+        <v>484</v>
+      </c>
+      <c r="D90" t="s">
         <v>483</v>
       </c>
-      <c r="D90" t="s">
-        <v>373</v>
-      </c>
       <c r="E90" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G90" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H90" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I90" t="s">
-        <v>421</v>
+        <v>93</v>
       </c>
       <c r="J90">
-        <v>99812</v>
+        <v>95076</v>
       </c>
       <c r="K90" t="s">
-        <v>607</v>
+        <v>557</v>
       </c>
       <c r="L90" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M90" s="5">
-        <v>19072</v>
+        <v>44825</v>
       </c>
       <c r="N90" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="O90" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="P90">
-        <v>354807308</v>
+        <v>810408029</v>
       </c>
       <c r="Q90" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="R90" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="S90" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="T90" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="U90" s="2">
         <v>9874563210</v>
@@ -11863,152 +11820,149 @@
         <v>123654789</v>
       </c>
       <c r="W90" t="s">
-        <v>1503</v>
+        <v>1490</v>
       </c>
       <c r="Y90" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z90" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="AA90" s="4" t="s">
-        <v>1303</v>
+        <v>1292</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>488</v>
+        <v>165</v>
       </c>
       <c r="D91" t="s">
-        <v>487</v>
+        <v>272</v>
       </c>
       <c r="E91" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F91" t="s">
         <v>489</v>
       </c>
       <c r="G91" t="s">
+        <v>269</v>
+      </c>
+      <c r="H91" t="s">
         <v>490</v>
       </c>
-      <c r="H91" t="s">
-        <v>491</v>
-      </c>
       <c r="I91" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="J91">
-        <v>95076</v>
+        <v>20446</v>
       </c>
       <c r="K91" t="s">
-        <v>562</v>
+        <v>603</v>
       </c>
       <c r="L91" t="s">
-        <v>614</v>
-      </c>
-      <c r="M91" s="5">
-        <v>44825</v>
+        <v>609</v>
+      </c>
+      <c r="M91">
+        <v>18926</v>
       </c>
       <c r="N91" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="O91" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="P91">
-        <v>810408029</v>
+        <v>328699444</v>
       </c>
       <c r="Q91" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="R91" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="S91" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="T91" t="s">
-        <v>1172</v>
-      </c>
-      <c r="U91" s="2">
+        <v>1165</v>
+      </c>
+      <c r="U91" s="3">
         <v>9874563210</v>
       </c>
       <c r="V91" s="2">
         <v>123654789</v>
       </c>
       <c r="W91" t="s">
-        <v>1504</v>
+        <v>1491</v>
       </c>
       <c r="Y91" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z91" t="s">
-        <v>1404</v>
+        <v>1392</v>
       </c>
       <c r="AA91" s="4" t="s">
-        <v>1304</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="92" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>169</v>
+        <v>491</v>
       </c>
       <c r="D92" t="s">
-        <v>276</v>
-      </c>
-      <c r="E92" t="s">
-        <v>56</v>
+        <v>351</v>
       </c>
       <c r="F92" t="s">
+        <v>492</v>
+      </c>
+      <c r="G92" t="s">
         <v>493</v>
-      </c>
-      <c r="G92" t="s">
-        <v>273</v>
       </c>
       <c r="H92" t="s">
         <v>494</v>
       </c>
       <c r="I92" t="s">
-        <v>195</v>
+        <v>495</v>
       </c>
       <c r="J92">
-        <v>20446</v>
+        <v>85565</v>
       </c>
       <c r="K92" t="s">
-        <v>608</v>
+        <v>542</v>
       </c>
       <c r="L92" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M92">
-        <v>18926</v>
+        <v>36188</v>
       </c>
       <c r="N92" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="O92" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="P92">
-        <v>328699444</v>
+        <v>923904318</v>
       </c>
       <c r="Q92" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="R92" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="S92" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="T92" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="U92" s="3">
         <v>9874563210</v>
@@ -12017,72 +11971,72 @@
         <v>123654789</v>
       </c>
       <c r="W92" t="s">
-        <v>1505</v>
+        <v>1492</v>
       </c>
       <c r="Y92" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z92" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
       <c r="AA92" s="4" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="93" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D93" t="s">
-        <v>355</v>
+        <v>496</v>
       </c>
       <c r="F93" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G93" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H93" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I93" t="s">
-        <v>499</v>
+        <v>46</v>
       </c>
       <c r="J93">
-        <v>85565</v>
+        <v>9776</v>
       </c>
       <c r="K93" t="s">
-        <v>547</v>
+        <v>604</v>
       </c>
       <c r="L93" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M93">
-        <v>36188</v>
+        <v>31378</v>
       </c>
       <c r="N93" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="O93" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="P93">
-        <v>923904318</v>
+        <v>755239549</v>
       </c>
       <c r="Q93" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="R93" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="S93" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="T93" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="U93" s="3">
         <v>9874563210</v>
@@ -12091,27 +12045,30 @@
         <v>123654789</v>
       </c>
       <c r="W93" t="s">
-        <v>1506</v>
+        <v>1493</v>
       </c>
       <c r="Y93" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z93" t="s">
-        <v>1406</v>
+        <v>1394</v>
       </c>
       <c r="AA93" s="4" t="s">
-        <v>1306</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="94" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
         <v>501</v>
       </c>
       <c r="D94" t="s">
-        <v>500</v>
+        <v>39</v>
+      </c>
+      <c r="E94" t="s">
+        <v>34</v>
       </c>
       <c r="F94" t="s">
         <v>502</v>
@@ -12123,40 +12080,40 @@
         <v>504</v>
       </c>
       <c r="I94" t="s">
-        <v>46</v>
+        <v>446</v>
       </c>
       <c r="J94">
-        <v>9776</v>
+        <v>17656</v>
       </c>
       <c r="K94" t="s">
+        <v>599</v>
+      </c>
+      <c r="L94" t="s">
         <v>609</v>
       </c>
-      <c r="L94" t="s">
-        <v>614</v>
-      </c>
       <c r="M94">
-        <v>31378</v>
+        <v>38687</v>
       </c>
       <c r="N94" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="O94" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="P94">
-        <v>755239549</v>
+        <v>69806686</v>
       </c>
       <c r="Q94" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="R94" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="S94" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="T94" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="U94" s="3">
         <v>9874563210</v>
@@ -12165,75 +12122,75 @@
         <v>123654789</v>
       </c>
       <c r="W94" t="s">
-        <v>1507</v>
+        <v>1494</v>
       </c>
       <c r="Y94" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z94" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="AA94" s="4" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="95" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" t="s">
+        <v>488</v>
+      </c>
+      <c r="E95" t="s">
+        <v>55</v>
+      </c>
+      <c r="F95" t="s">
         <v>505</v>
       </c>
-      <c r="D95" t="s">
-        <v>39</v>
-      </c>
-      <c r="E95" t="s">
-        <v>34</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>506</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>507</v>
       </c>
-      <c r="H95" t="s">
-        <v>508</v>
-      </c>
       <c r="I95" t="s">
-        <v>450</v>
+        <v>56</v>
       </c>
       <c r="J95">
-        <v>17656</v>
+        <v>16808</v>
       </c>
       <c r="K95" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L95" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M95">
-        <v>38687</v>
+        <v>15766</v>
       </c>
       <c r="N95" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="O95" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="P95">
-        <v>69806686</v>
+        <v>638786408</v>
       </c>
       <c r="Q95" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="R95" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="S95" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="T95" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="U95" s="3">
         <v>9874563210</v>
@@ -12242,30 +12199,27 @@
         <v>123654789</v>
       </c>
       <c r="W95" t="s">
-        <v>1508</v>
+        <v>1495</v>
       </c>
       <c r="Y95" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z95" t="s">
-        <v>1408</v>
+        <v>1396</v>
       </c>
       <c r="AA95" s="4" t="s">
-        <v>1308</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="96" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>492</v>
-      </c>
-      <c r="E96" t="s">
-        <v>56</v>
+        <v>508</v>
       </c>
       <c r="F96" t="s">
         <v>509</v>
@@ -12277,40 +12231,40 @@
         <v>511</v>
       </c>
       <c r="I96" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="J96">
-        <v>16808</v>
+        <v>32222</v>
       </c>
       <c r="K96" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="L96" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M96">
-        <v>15766</v>
+        <v>41085</v>
       </c>
       <c r="N96" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="O96" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="P96">
-        <v>638786408</v>
+        <v>84944194</v>
       </c>
       <c r="Q96" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="R96" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="S96" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="T96" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="U96" s="3">
         <v>9874563210</v>
@@ -12319,72 +12273,75 @@
         <v>123654789</v>
       </c>
       <c r="W96" t="s">
-        <v>1509</v>
+        <v>1496</v>
       </c>
       <c r="Y96" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z96" t="s">
-        <v>1409</v>
+        <v>1397</v>
       </c>
       <c r="AA96" s="4" t="s">
-        <v>1309</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="97" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>104</v>
+        <v>512</v>
       </c>
       <c r="D97" t="s">
-        <v>512</v>
+        <v>317</v>
+      </c>
+      <c r="E97" t="s">
+        <v>34</v>
       </c>
       <c r="F97" t="s">
         <v>513</v>
       </c>
       <c r="G97" t="s">
+        <v>144</v>
+      </c>
+      <c r="H97" t="s">
         <v>514</v>
       </c>
-      <c r="H97" t="s">
-        <v>515</v>
-      </c>
       <c r="I97" t="s">
-        <v>211</v>
+        <v>368</v>
       </c>
       <c r="J97">
-        <v>32222</v>
+        <v>578</v>
       </c>
       <c r="K97" t="s">
-        <v>611</v>
+        <v>564</v>
       </c>
       <c r="L97" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M97">
-        <v>41085</v>
+        <v>14618</v>
       </c>
       <c r="N97" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="O97" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="P97">
-        <v>84944194</v>
+        <v>610588982</v>
       </c>
       <c r="Q97" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="R97" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="S97" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="T97" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="U97" s="3">
         <v>9874563210</v>
@@ -12393,75 +12350,75 @@
         <v>123654789</v>
       </c>
       <c r="W97" t="s">
-        <v>1510</v>
+        <v>1497</v>
       </c>
       <c r="Y97" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z97" t="s">
-        <v>1410</v>
+        <v>1398</v>
       </c>
       <c r="AA97" s="4" t="s">
-        <v>1310</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="98" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
+        <v>408</v>
+      </c>
+      <c r="D98" t="s">
+        <v>122</v>
+      </c>
+      <c r="E98" t="s">
+        <v>42</v>
+      </c>
+      <c r="F98" t="s">
+        <v>515</v>
+      </c>
+      <c r="G98" t="s">
         <v>516</v>
       </c>
-      <c r="D98" t="s">
-        <v>321</v>
-      </c>
-      <c r="E98" t="s">
-        <v>34</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="H98" t="s">
         <v>517</v>
       </c>
-      <c r="G98" t="s">
-        <v>148</v>
-      </c>
-      <c r="H98" t="s">
-        <v>518</v>
-      </c>
       <c r="I98" t="s">
-        <v>372</v>
+        <v>31</v>
       </c>
       <c r="J98">
-        <v>578</v>
+        <v>22129</v>
       </c>
       <c r="K98" t="s">
-        <v>569</v>
+        <v>607</v>
       </c>
       <c r="L98" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M98">
-        <v>14618</v>
+        <v>44531</v>
       </c>
       <c r="N98" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="O98" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="P98">
-        <v>610588982</v>
+        <v>975539154</v>
       </c>
       <c r="Q98" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="R98" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="S98" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="T98" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="U98" s="3">
         <v>9874563210</v>
@@ -12470,30 +12427,30 @@
         <v>123654789</v>
       </c>
       <c r="W98" t="s">
-        <v>1511</v>
+        <v>1498</v>
       </c>
       <c r="Y98" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z98" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
       <c r="AA98" s="4" t="s">
-        <v>1311</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="99" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>412</v>
+        <v>518</v>
       </c>
       <c r="D99" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="E99" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
         <v>519</v>
@@ -12505,40 +12462,40 @@
         <v>521</v>
       </c>
       <c r="I99" t="s">
-        <v>31</v>
+        <v>271</v>
       </c>
       <c r="J99">
-        <v>22129</v>
+        <v>16970</v>
       </c>
       <c r="K99" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="L99" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M99">
-        <v>44531</v>
+        <v>36190</v>
       </c>
       <c r="N99" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="O99" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="P99">
-        <v>975539154</v>
+        <v>284657755</v>
       </c>
       <c r="Q99" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="R99" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="S99" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="T99" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="U99" s="3">
         <v>9874563210</v>
@@ -12547,30 +12504,30 @@
         <v>123654789</v>
       </c>
       <c r="W99" t="s">
-        <v>1512</v>
+        <v>1499</v>
       </c>
       <c r="Y99" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z99" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
       <c r="AA99" s="4" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="100" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
         <v>522</v>
       </c>
       <c r="D100" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F100" t="s">
         <v>523</v>
@@ -12582,40 +12539,40 @@
         <v>525</v>
       </c>
       <c r="I100" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="J100">
-        <v>16970</v>
+        <v>42641</v>
       </c>
       <c r="K100" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L100" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="M100">
-        <v>36190</v>
+        <v>19114</v>
       </c>
       <c r="N100" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="O100" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="P100">
-        <v>284657755</v>
+        <v>680094530</v>
       </c>
       <c r="Q100" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="R100" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="S100" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="T100" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="U100" s="3">
         <v>9874563210</v>
@@ -12624,93 +12581,16 @@
         <v>123654789</v>
       </c>
       <c r="W100" t="s">
-        <v>1513</v>
+        <v>1500</v>
       </c>
       <c r="Y100" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="Z100" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
       <c r="AA100" s="4" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="101" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>526</v>
-      </c>
-      <c r="D101" t="s">
-        <v>174</v>
-      </c>
-      <c r="E101" t="s">
-        <v>42</v>
-      </c>
-      <c r="F101" t="s">
-        <v>527</v>
-      </c>
-      <c r="G101" t="s">
-        <v>528</v>
-      </c>
-      <c r="H101" t="s">
-        <v>529</v>
-      </c>
-      <c r="I101" t="s">
-        <v>286</v>
-      </c>
-      <c r="J101">
-        <v>42641</v>
-      </c>
-      <c r="K101" t="s">
-        <v>613</v>
-      </c>
-      <c r="L101" t="s">
-        <v>614</v>
-      </c>
-      <c r="M101">
-        <v>19114</v>
-      </c>
-      <c r="N101" t="s">
-        <v>712</v>
-      </c>
-      <c r="O101" t="s">
-        <v>812</v>
-      </c>
-      <c r="P101">
-        <v>680094530</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>1209</v>
-      </c>
-      <c r="R101" t="s">
-        <v>1210</v>
-      </c>
-      <c r="S101" t="s">
-        <v>1211</v>
-      </c>
-      <c r="T101" t="s">
-        <v>1212</v>
-      </c>
-      <c r="U101" s="3">
-        <v>9874563210</v>
-      </c>
-      <c r="V101" s="2">
-        <v>123654789</v>
-      </c>
-      <c r="W101" t="s">
-        <v>1514</v>
-      </c>
-      <c r="Y101" t="s">
-        <v>1214</v>
-      </c>
-      <c r="Z101" t="s">
-        <v>1414</v>
-      </c>
-      <c r="AA101" s="4" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
     </row>
   </sheetData>

--- a/00000029.xlsx
+++ b/00000029.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uaslam\Downloads\SpreadJS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8918E51-7668-4AFE-B588-7DDAC2279FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D83403D-154B-4DE5-B603-F29225210437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BCAB364B-7876-4AA2-8F13-4DFC0FC48B38}"/>
   </bookViews>
@@ -5119,7 +5119,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
